--- a/artfynd/A 34759-2023.xlsx
+++ b/artfynd/A 34759-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,6 +1697,503 @@
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112163316</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Källdalen SV, Vstm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>558054.0685264322</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6628664.783651764</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Tätt bestånd.</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112163367</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Källdalen SV, Vstm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>558082.638313611</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6628611.362187758</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112164162</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>558022.2854273538</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6628309.856821301</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog, renlavsmarker</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112163866</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>558019.5269801348</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6628292.695551688</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog, renlavsmarker</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34759-2023.xlsx
+++ b/artfynd/A 34759-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112163316</v>
+        <v>112163866</v>
       </c>
       <c r="B10" t="n">
         <v>90666</v>
@@ -1732,28 +1732,20 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Källdalen SV, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>558054.0685264322</v>
+        <v>558019.5269801348</v>
       </c>
       <c r="R10" t="n">
-        <v>6628664.783651764</v>
+        <v>6628292.695551688</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1798,11 +1790,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Tätt bestånd.</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1815,7 +1802,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1833,10 +1820,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112163367</v>
+        <v>112164196</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1845,41 +1832,49 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Källdalen SV, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558082.638313611</v>
+        <v>558006.6039591935</v>
       </c>
       <c r="R11" t="n">
-        <v>6628611.362187758</v>
+        <v>6628377.581126292</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1936,7 +1931,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1954,7 +1949,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112164162</v>
+        <v>112163367</v>
       </c>
       <c r="B12" t="n">
         <v>90666</v>
@@ -1993,14 +1988,14 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Källdalen SV, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558022.2854273538</v>
+        <v>558082.638313611</v>
       </c>
       <c r="R12" t="n">
-        <v>6628309.856821301</v>
+        <v>6628611.362187758</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2057,7 +2052,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2075,10 +2070,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112163866</v>
+        <v>112163592</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90651</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2087,29 +2082,37 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>1968</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
@@ -2118,10 +2121,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>558019.5269801348</v>
+        <v>558061.6910559883</v>
       </c>
       <c r="R13" t="n">
-        <v>6628292.695551688</v>
+        <v>6628273.213957557</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2166,6 +2169,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>i bestånd med gamla granar.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
@@ -2178,7 +2186,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2193,6 +2201,1275 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112164162</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>558022.2854273538</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6628309.856821301</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog, renlavsmarker</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>112163316</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Källdalen SV, Vstm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>558054.0685264322</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6628664.783651764</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Tätt bestånd.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>112164100</v>
+      </c>
+      <c r="B16" t="n">
+        <v>95538</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>558019.5269801348</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6628292.695551688</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>112163912</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>558019.5269801348</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6628292.695551688</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>Gammal barrblandskog, renlavsmarker</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>112204071</v>
+      </c>
+      <c r="B18" t="n">
+        <v>95524</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>221944</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lopplummer</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Huperzia selago</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Månses hål S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>558130.4553592519</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6628068.357521097</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>på mossigt block</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>112204239</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Blåbärsberget SV, Vstm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>558147.0368922617</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6627943.240416376</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>112203759</v>
+      </c>
+      <c r="B20" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Månses hål S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>557997.0347990737</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6628182.5848278</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>Barrblandskog, hedartad</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>112204223</v>
+      </c>
+      <c r="B21" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Månses hål S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>558126.1115708216</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6627991.251825933</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>112203601</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Månses hål S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>558087.4252130948</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6627981.584427373</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112203716</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Månses hål S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>558021.3615069943</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6628142.684283516</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>Barrblandskog, hedartad</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 34759-2023.xlsx
+++ b/artfynd/A 34759-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY23"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,6 +3471,122 @@
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112222749</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Månses hål S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>558131</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6628068</v>
+      </c>
+      <c r="S24" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-19</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34759-2023.xlsx
+++ b/artfynd/A 34759-2023.xlsx
@@ -1699,10 +1699,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112163866</v>
+        <v>112164100</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>95538</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1715,26 +1715,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>221941</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1742,10 +1743,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>558019.5269801348</v>
+        <v>558020</v>
       </c>
       <c r="R10" t="n">
-        <v>6628292.695551688</v>
+        <v>6628293</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1775,19 +1776,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1802,7 +1793,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1820,10 +1811,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112164196</v>
+        <v>112163866</v>
       </c>
       <c r="B11" t="n">
-        <v>90689</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1832,37 +1823,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
@@ -1871,10 +1854,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558006.6039591935</v>
+        <v>558020</v>
       </c>
       <c r="R11" t="n">
-        <v>6628377.581126292</v>
+        <v>6628293</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1904,19 +1887,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1949,10 +1922,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112163367</v>
+        <v>112164196</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>90689</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1961,41 +1934,49 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Källdalen SV, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558082.638313611</v>
+        <v>558007</v>
       </c>
       <c r="R12" t="n">
-        <v>6628611.362187758</v>
+        <v>6628378</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2025,19 +2006,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2052,7 +2023,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2070,10 +2041,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112163592</v>
+        <v>112163367</v>
       </c>
       <c r="B13" t="n">
-        <v>90651</v>
+        <v>90666</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2082,49 +2053,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1968</v>
+        <v>4364</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Källdalen SV, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>558061.6910559883</v>
+        <v>558083</v>
       </c>
       <c r="R13" t="n">
-        <v>6628273.213957557</v>
+        <v>6628611</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2154,24 +2117,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>i bestånd med gamla granar.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2204,10 +2152,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112164162</v>
+        <v>112163592</v>
       </c>
       <c r="B14" t="n">
-        <v>90666</v>
+        <v>90651</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2216,29 +2164,37 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>1968</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2247,10 +2203,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>558022.2854273538</v>
+        <v>558062</v>
       </c>
       <c r="R14" t="n">
-        <v>6628309.856821301</v>
+        <v>6628273</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2280,19 +2236,14 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>i bestånd med gamla granar.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2307,7 +2258,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2325,7 +2276,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112163316</v>
+        <v>112164162</v>
       </c>
       <c r="B15" t="n">
         <v>90666</v>
@@ -2358,28 +2309,20 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Källdalen SV, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>558054.0685264322</v>
+        <v>558022</v>
       </c>
       <c r="R15" t="n">
-        <v>6628664.783651764</v>
+        <v>6628310</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2409,24 +2352,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Tätt bestånd.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2441,7 +2369,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2459,10 +2387,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112164100</v>
+        <v>112163316</v>
       </c>
       <c r="B16" t="n">
-        <v>95538</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2475,38 +2403,45 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Källdalen SV, Vstm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>558019.5269801348</v>
+        <v>558054</v>
       </c>
       <c r="R16" t="n">
-        <v>6628292.695551688</v>
+        <v>6628665</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2536,19 +2471,14 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Tätt bestånd.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2624,10 +2554,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>558019.5269801348</v>
+        <v>558020</v>
       </c>
       <c r="R17" t="n">
-        <v>6628292.695551688</v>
+        <v>6628293</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2657,19 +2587,9 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-17</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2707,10 +2627,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112204071</v>
+        <v>112203759</v>
       </c>
       <c r="B18" t="n">
-        <v>95524</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2719,39 +2639,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>221944</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lopplummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Huperzia selago</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2759,10 +2670,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>558130.4553592519</v>
+        <v>557997</v>
       </c>
       <c r="R18" t="n">
-        <v>6628068.357521097</v>
+        <v>6628183</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2792,19 +2703,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2819,12 +2720,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Blandskog</t>
+          <t>Barrblandskog, hedartad</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>på mossigt block</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2885,10 +2786,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558147.0368922617</v>
+        <v>558147</v>
       </c>
       <c r="R19" t="n">
-        <v>6627943.240416376</v>
+        <v>6627943</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2918,19 +2819,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2968,10 +2859,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112203759</v>
+        <v>112203716</v>
       </c>
       <c r="B20" t="n">
-        <v>89405</v>
+        <v>90666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2980,25 +2871,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>4364</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -3011,10 +2902,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>557997.0347990737</v>
+        <v>558021</v>
       </c>
       <c r="R20" t="n">
-        <v>6628182.5848278</v>
+        <v>6628143</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3044,19 +2935,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3072,11 +2953,6 @@
       <c r="AI20" t="inlineStr">
         <is>
           <t>Barrblandskog, hedartad</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3094,10 +2970,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112204223</v>
+        <v>112203601</v>
       </c>
       <c r="B21" t="n">
-        <v>89369</v>
+        <v>8377</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3110,26 +2986,32 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5447</v>
+        <v>106545</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3137,13 +3019,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558126.1115708216</v>
+        <v>558087</v>
       </c>
       <c r="R21" t="n">
-        <v>6627991.251825933</v>
+        <v>6627982</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3170,19 +3052,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3202,7 +3074,7 @@
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Tall</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3220,10 +3092,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112203601</v>
+        <v>112204071</v>
       </c>
       <c r="B22" t="n">
-        <v>8377</v>
+        <v>95524</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3236,32 +3108,35 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>106545</v>
+        <v>221944</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Lopplummer</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Huperzia selago</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+          <t>(L.) Bernh. ex Schrank &amp; Mart.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3269,13 +3144,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>558087.4252130948</v>
+        <v>558130</v>
       </c>
       <c r="R22" t="n">
-        <v>6627981.584427373</v>
+        <v>6628068</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3302,19 +3177,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3329,12 +3194,12 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
+          <t>Blandskog</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Tall</t>
+          <t>på mossigt block</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3352,10 +3217,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112203716</v>
+        <v>112204109</v>
       </c>
       <c r="B23" t="n">
-        <v>90666</v>
+        <v>89369</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3368,21 +3233,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3395,10 +3260,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558021.3615069943</v>
+        <v>558126</v>
       </c>
       <c r="R23" t="n">
-        <v>6628142.684283516</v>
+        <v>6627991</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3428,19 +3293,9 @@
           <t>2023-09-19</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3455,7 +3310,12 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Barrblandskog, hedartad</t>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>

--- a/artfynd/A 34759-2023.xlsx
+++ b/artfynd/A 34759-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112164100</v>
+        <v>112163866</v>
       </c>
       <c r="B10" t="n">
-        <v>95538</v>
+        <v>90800</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1715,27 +1715,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1793,7 +1792,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1811,10 +1810,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112163866</v>
+        <v>112163367</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1850,14 +1849,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Källdalen SV, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558020</v>
+        <v>558083</v>
       </c>
       <c r="R11" t="n">
-        <v>6628293</v>
+        <v>6628611</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1904,7 +1903,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1922,10 +1921,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112164196</v>
+        <v>112163316</v>
       </c>
       <c r="B12" t="n">
-        <v>90689</v>
+        <v>90800</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1934,30 +1933,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1969,14 +1968,14 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Källdalen SV, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558007</v>
+        <v>558054</v>
       </c>
       <c r="R12" t="n">
-        <v>6628378</v>
+        <v>6628665</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2011,6 +2010,11 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Tätt bestånd.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2023,7 +2027,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2041,10 +2045,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112163367</v>
+        <v>112164196</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90823</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2053,41 +2057,49 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Källdalen SV, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>558083</v>
+        <v>558007</v>
       </c>
       <c r="R13" t="n">
-        <v>6628611</v>
+        <v>6628378</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2134,7 +2146,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2152,10 +2164,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112163592</v>
+        <v>112163912</v>
       </c>
       <c r="B14" t="n">
-        <v>90651</v>
+        <v>90794</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2168,33 +2180,25 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1968</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
@@ -2203,10 +2207,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>558062</v>
+        <v>558020</v>
       </c>
       <c r="R14" t="n">
-        <v>6628273</v>
+        <v>6628293</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2241,11 +2245,6 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>i bestånd med gamla granar.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
@@ -2258,7 +2257,12 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2276,10 +2280,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112164162</v>
+        <v>112164100</v>
       </c>
       <c r="B15" t="n">
-        <v>90666</v>
+        <v>95693</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2292,26 +2296,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>221941</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2319,10 +2324,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>558022</v>
+        <v>558020</v>
       </c>
       <c r="R15" t="n">
-        <v>6628310</v>
+        <v>6628293</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2369,7 +2374,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2387,10 +2392,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112163316</v>
+        <v>112164162</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2420,28 +2425,20 @@
           <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Källdalen SV, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>558054</v>
+        <v>558022</v>
       </c>
       <c r="R16" t="n">
-        <v>6628665</v>
+        <v>6628310</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2476,11 +2473,6 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Tätt bestånd.</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2493,7 +2485,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2511,10 +2503,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112163912</v>
+        <v>112163592</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90785</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2527,25 +2519,33 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>1968</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>558020</v>
+        <v>558062</v>
       </c>
       <c r="R17" t="n">
-        <v>6628293</v>
+        <v>6628273</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2592,6 +2592,11 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>i bestånd med gamla granar.</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2604,12 +2609,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Gran</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112203759</v>
+        <v>112204239</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2666,14 +2666,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Månses hål S, Vstm</t>
+          <t>Blåbärsberget SV, Vstm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>557997</v>
+        <v>558147</v>
       </c>
       <c r="R18" t="n">
-        <v>6628183</v>
+        <v>6627943</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Barrblandskog, hedartad</t>
+          <t>Blandskog</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112204239</v>
+        <v>112204223</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>89503</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2755,25 +2755,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2782,14 +2782,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Blåbärsberget SV, Vstm</t>
+          <t>Månses hål S, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558147</v>
+        <v>558126</v>
       </c>
       <c r="R19" t="n">
-        <v>6627943</v>
+        <v>6627991</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Blandskog</t>
+          <t>Barrblandskog</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
@@ -2859,10 +2859,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112203716</v>
+        <v>112203759</v>
       </c>
       <c r="B20" t="n">
-        <v>90666</v>
+        <v>89539</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2871,25 +2871,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2902,10 +2902,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>558021</v>
+        <v>557997</v>
       </c>
       <c r="R20" t="n">
-        <v>6628143</v>
+        <v>6628183</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2953,6 +2953,11 @@
       <c r="AI20" t="inlineStr">
         <is>
           <t>Barrblandskog, hedartad</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2970,10 +2975,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112203601</v>
+        <v>112203716</v>
       </c>
       <c r="B21" t="n">
-        <v>8377</v>
+        <v>90800</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2986,32 +2991,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>106545</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3019,13 +3018,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558087</v>
+        <v>558021</v>
       </c>
       <c r="R21" t="n">
-        <v>6627982</v>
+        <v>6628143</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3069,12 +3068,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Tall</t>
+          <t>Barrblandskog, hedartad</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3095,7 +3089,7 @@
         <v>112204071</v>
       </c>
       <c r="B22" t="n">
-        <v>95524</v>
+        <v>95679</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3217,10 +3211,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112204109</v>
+        <v>112203601</v>
       </c>
       <c r="B23" t="n">
-        <v>89369</v>
+        <v>8377</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3233,26 +3227,32 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>106545</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3260,13 +3260,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>558126</v>
+        <v>558087</v>
       </c>
       <c r="R23" t="n">
-        <v>6627991</v>
+        <v>6627982</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3310,12 +3310,12 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>Blandskog</t>
+          <t>Barrblandskog</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Tall</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3336,7 +3336,7 @@
         <v>112222749</v>
       </c>
       <c r="B24" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3447,6 +3447,246 @@
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112457954</v>
+      </c>
+      <c r="B25" t="n">
+        <v>89503</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>558132</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6628143</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>112457599</v>
+      </c>
+      <c r="B26" t="n">
+        <v>96720</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>558038</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6628211</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-05-02</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Mossig gammal barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34759-2023.xlsx
+++ b/artfynd/A 34759-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY26"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,6 +3687,1199 @@
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>112501817</v>
+      </c>
+      <c r="B27" t="n">
+        <v>56446</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>558037</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6628280</v>
+      </c>
+      <c r="S27" t="n">
+        <v>100</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>112501787</v>
+      </c>
+      <c r="B28" t="n">
+        <v>56575</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Månses hål, Vstm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>558037</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6628280</v>
+      </c>
+      <c r="S28" t="n">
+        <v>100</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>meståg</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>112501637</v>
+      </c>
+      <c r="B29" t="n">
+        <v>90814</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Månses hål N, Vstm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>557914</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6628494</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>112501403</v>
+      </c>
+      <c r="B30" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Månses hål N, Vstm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>557958</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6628535</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>112501672</v>
+      </c>
+      <c r="B31" t="n">
+        <v>89517</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Månses hål N, Vstm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>557941</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6628426</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>112501295</v>
+      </c>
+      <c r="B32" t="n">
+        <v>8377</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>106545</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mindre märgborre</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Tomicus minor</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Månses hål N, Vstm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>558049</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6628477</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>Tallskog, inslag av unga granplantor</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>112501432</v>
+      </c>
+      <c r="B33" t="n">
+        <v>89517</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Månses hål N, Vstm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>557940</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6628530</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112501340</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90814</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Månses hål N, Vstm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>557994</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6628516</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>Barrblandskog, mot tallmosse</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>112501658</v>
+      </c>
+      <c r="B35" t="n">
+        <v>96735</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Månses hål N, Vstm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>557921</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6628494</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>112501410</v>
+      </c>
+      <c r="B36" t="n">
+        <v>89517</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Månses hål N, Vstm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>557958</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6628535</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Surahammar</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Ramnäs</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Tom Sävström</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 34759-2023.xlsx
+++ b/artfynd/A 34759-2023.xlsx
@@ -1699,10 +1699,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112163866</v>
+        <v>112163912</v>
       </c>
       <c r="B10" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1711,25 +1711,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1795,6 +1795,11 @@
           <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
@@ -1810,10 +1815,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112163367</v>
+        <v>112164162</v>
       </c>
       <c r="B11" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1849,14 +1854,14 @@
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Källdalen SV, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>558083</v>
+        <v>558022</v>
       </c>
       <c r="R11" t="n">
-        <v>6628611</v>
+        <v>6628310</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1903,7 +1908,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1921,10 +1926,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112163316</v>
+        <v>112164196</v>
       </c>
       <c r="B12" t="n">
-        <v>90800</v>
+        <v>90837</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1933,30 +1938,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1968,14 +1973,14 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Källdalen SV, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>558054</v>
+        <v>558007</v>
       </c>
       <c r="R12" t="n">
-        <v>6628665</v>
+        <v>6628378</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2010,11 +2015,6 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Tätt bestånd.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112164196</v>
+        <v>112164100</v>
       </c>
       <c r="B13" t="n">
-        <v>90823</v>
+        <v>95707</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2057,38 +2057,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5966</v>
+        <v>221941</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2096,10 +2089,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>558007</v>
+        <v>558020</v>
       </c>
       <c r="R13" t="n">
-        <v>6628378</v>
+        <v>6628293</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2146,7 +2139,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2164,10 +2157,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112163912</v>
+        <v>112163367</v>
       </c>
       <c r="B14" t="n">
-        <v>90794</v>
+        <v>90814</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2176,25 +2169,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2203,14 +2196,14 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Källdalen SV, Vstm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>558020</v>
+        <v>558083</v>
       </c>
       <c r="R14" t="n">
-        <v>6628293</v>
+        <v>6628611</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2257,12 +2250,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Gran</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2280,10 +2268,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112164100</v>
+        <v>112163316</v>
       </c>
       <c r="B15" t="n">
-        <v>95693</v>
+        <v>90814</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2296,38 +2284,45 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Källdalen SV, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>558020</v>
+        <v>558054</v>
       </c>
       <c r="R15" t="n">
-        <v>6628293</v>
+        <v>6628665</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2360,6 +2355,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-17</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Tätt bestånd.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2392,10 +2392,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112164162</v>
+        <v>112163592</v>
       </c>
       <c r="B16" t="n">
-        <v>90800</v>
+        <v>90799</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2404,29 +2404,37 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>1968</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
@@ -2435,10 +2443,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>558022</v>
+        <v>558062</v>
       </c>
       <c r="R16" t="n">
-        <v>6628310</v>
+        <v>6628273</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2473,6 +2481,11 @@
           <t>2023-09-17</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>i bestånd med gamla granar.</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2485,7 +2498,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog, renlavsmarker</t>
+          <t>Gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2503,10 +2516,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112163592</v>
+        <v>112163866</v>
       </c>
       <c r="B17" t="n">
-        <v>90785</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2515,37 +2528,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1968</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
@@ -2554,10 +2559,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>558062</v>
+        <v>558020</v>
       </c>
       <c r="R17" t="n">
-        <v>6628273</v>
+        <v>6628293</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2592,11 +2597,6 @@
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>i bestånd med gamla granar.</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Gammal barrblandskog</t>
+          <t>Gammal barrblandskog, renlavsmarker</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112204239</v>
+        <v>112203759</v>
       </c>
       <c r="B18" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2666,14 +2666,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Blåbärsberget SV, Vstm</t>
+          <t>Månses hål S, Vstm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>558147</v>
+        <v>557997</v>
       </c>
       <c r="R18" t="n">
-        <v>6627943</v>
+        <v>6628183</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2720,12 +2720,12 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>Blandskog</t>
+          <t>Barrblandskog, hedartad</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2743,10 +2743,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112204223</v>
+        <v>112203716</v>
       </c>
       <c r="B19" t="n">
-        <v>89503</v>
+        <v>90814</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2759,21 +2759,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2786,10 +2786,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>558126</v>
+        <v>558021</v>
       </c>
       <c r="R19" t="n">
-        <v>6627991</v>
+        <v>6628143</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2836,12 +2836,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Gran</t>
+          <t>Barrblandskog, hedartad</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2859,10 +2854,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112203759</v>
+        <v>112204109</v>
       </c>
       <c r="B20" t="n">
-        <v>89539</v>
+        <v>89517</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2871,25 +2866,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2902,10 +2897,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>557997</v>
+        <v>558126</v>
       </c>
       <c r="R20" t="n">
-        <v>6628183</v>
+        <v>6627991</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2952,12 +2947,12 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>Barrblandskog, hedartad</t>
+          <t>Blandskog</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -2975,10 +2970,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112203716</v>
+        <v>112204239</v>
       </c>
       <c r="B21" t="n">
-        <v>90800</v>
+        <v>89553</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2987,25 +2982,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3014,14 +3009,14 @@
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Månses hål S, Vstm</t>
+          <t>Blåbärsberget SV, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>558021</v>
+        <v>558147</v>
       </c>
       <c r="R21" t="n">
-        <v>6628143</v>
+        <v>6627943</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3068,7 +3063,12 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>Barrblandskog, hedartad</t>
+          <t>Blandskog</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
         <v>112204071</v>
       </c>
       <c r="B22" t="n">
-        <v>95679</v>
+        <v>95693</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
         <v>112222749</v>
       </c>
       <c r="B24" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3449,10 +3449,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112457954</v>
+        <v>112457599</v>
       </c>
       <c r="B25" t="n">
-        <v>89503</v>
+        <v>96735</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3461,30 +3461,43 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3492,10 +3505,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>558132</v>
+        <v>558038</v>
       </c>
       <c r="R25" t="n">
-        <v>6628143</v>
+        <v>6628211</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3542,12 +3555,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Gran</t>
+          <t>Mossig gammal barrblandskog</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>
@@ -3565,10 +3573,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112457599</v>
+        <v>112457954</v>
       </c>
       <c r="B26" t="n">
-        <v>96720</v>
+        <v>89517</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3577,43 +3585,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr"/>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3621,10 +3616,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>558038</v>
+        <v>558132</v>
       </c>
       <c r="R26" t="n">
-        <v>6628211</v>
+        <v>6628143</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3671,7 +3666,12 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>Mossig gammal barrblandskog</t>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr"/>
@@ -3689,10 +3689,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112501817</v>
+        <v>112501432</v>
       </c>
       <c r="B27" t="n">
-        <v>56446</v>
+        <v>89517</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3701,53 +3701,44 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100049</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Månses hål N, Vstm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>558037</v>
+        <v>557940</v>
       </c>
       <c r="R27" t="n">
-        <v>6628280</v>
+        <v>6628530</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3774,29 +3765,30 @@
           <t>2023-10-03</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-10-03</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
       <c r="AD27" t="b">
         <v>0</v>
       </c>
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3813,10 +3805,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112501787</v>
+        <v>112501410</v>
       </c>
       <c r="B28" t="n">
-        <v>56575</v>
+        <v>89517</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3825,53 +3817,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Månses hål, Vstm</t>
+          <t>Månses hål N, Vstm</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>558037</v>
+        <v>557958</v>
       </c>
       <c r="R28" t="n">
-        <v>6628280</v>
+        <v>6628535</v>
       </c>
       <c r="S28" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3898,34 +3881,30 @@
           <t>2023-10-03</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-10-03</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>meståg</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>Barrblandskog</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3942,10 +3921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112501637</v>
+        <v>112501787</v>
       </c>
       <c r="B29" t="n">
-        <v>90814</v>
+        <v>56575</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3954,44 +3933,53 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4364</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Månses hål N, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>557914</v>
+        <v>558037</v>
       </c>
       <c r="R29" t="n">
-        <v>6628494</v>
+        <v>6628280</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4018,25 +4006,34 @@
           <t>2023-10-03</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-10-03</t>
         </is>
       </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>meståg</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AI29" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4177,10 +4174,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112501672</v>
+        <v>112501658</v>
       </c>
       <c r="B31" t="n">
-        <v>89517</v>
+        <v>96735</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4189,30 +4186,43 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4220,10 +4230,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>557941</v>
+        <v>557921</v>
       </c>
       <c r="R31" t="n">
-        <v>6628426</v>
+        <v>6628494</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4271,11 +4281,6 @@
       <c r="AI31" t="inlineStr">
         <is>
           <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Gran</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4293,10 +4298,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112501295</v>
+        <v>112501672</v>
       </c>
       <c r="B32" t="n">
-        <v>8377</v>
+        <v>89517</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4309,32 +4314,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>106545</v>
+        <v>5447</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4342,10 +4341,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>558049</v>
+        <v>557941</v>
       </c>
       <c r="R32" t="n">
-        <v>6628477</v>
+        <v>6628426</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4392,12 +4391,12 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>Tallskog, inslag av unga granplantor</t>
+          <t>Barrblandskog</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Tall</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4415,10 +4414,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112501432</v>
+        <v>112501340</v>
       </c>
       <c r="B33" t="n">
-        <v>89517</v>
+        <v>90814</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4431,21 +4430,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4458,10 +4457,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>557940</v>
+        <v>557994</v>
       </c>
       <c r="R33" t="n">
-        <v>6628530</v>
+        <v>6628516</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4508,12 +4507,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Gran</t>
+          <t>Barrblandskog, mot tallmosse</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4531,7 +4525,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112501340</v>
+        <v>112501637</v>
       </c>
       <c r="B34" t="n">
         <v>90814</v>
@@ -4574,10 +4568,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>557994</v>
+        <v>557914</v>
       </c>
       <c r="R34" t="n">
-        <v>6628516</v>
+        <v>6628494</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4624,7 +4618,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>Barrblandskog, mot tallmosse</t>
+          <t>Barrblandskog</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4642,10 +4636,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112501658</v>
+        <v>112501295</v>
       </c>
       <c r="B35" t="n">
-        <v>96735</v>
+        <v>8377</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4654,43 +4648,36 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>106545</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4698,10 +4685,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>557921</v>
+        <v>558049</v>
       </c>
       <c r="R35" t="n">
-        <v>6628494</v>
+        <v>6628477</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4748,7 +4735,12 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>Barrblandskog</t>
+          <t>Tallskog, inslag av unga granplantor</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Tall</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4766,10 +4758,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112501410</v>
+        <v>112501817</v>
       </c>
       <c r="B36" t="n">
-        <v>89517</v>
+        <v>56446</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4778,44 +4770,53 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5447</v>
+        <v>100049</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Månses hål N, Vstm</t>
+          <t>Månses hål, Vstm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>557958</v>
+        <v>558037</v>
       </c>
       <c r="R36" t="n">
-        <v>6628535</v>
+        <v>6628280</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4842,30 +4843,29 @@
           <t>2023-10-03</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-10-03</t>
         </is>
       </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>Barrblandskog</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
